--- a/DataPool/Folha/Cadastros Gerais/Gerais/Eventos/eSocial/Incid.Trib. da Rubrica FGTS/Incid.Trib. da Rubrica FGTS.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Gerais/Eventos/eSocial/Incid.Trib. da Rubrica FGTS/Incid.Trib. da Rubrica FGTS.xlsx
@@ -17,16 +17,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
-    <t>IDCALCREG</t>
+    <t>IDINCTRIBFGTS</t>
   </si>
   <si>
     <t>DESCRICAO</t>
   </si>
   <si>
-    <t>100</t>
+    <t>3</t>
   </si>
   <si>
-    <t>Valor do Cálculo Teste</t>
+    <t>Não é base para Teste</t>
   </si>
 </sst>
 </file>
@@ -34,10 +34,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,68 +48,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,16 +116,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,7 +178,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -155,38 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,13 +201,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,37 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,121 +357,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,6 +392,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -410,40 +460,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -466,179 +492,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -971,12 +971,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="13.5714285714286" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.14285714285714" style="1"/>
   </cols>
@@ -1009,12 +1009,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
